--- a/python/hw8/timings.xlsx
+++ b/python/hw8/timings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17415" windowHeight="8970"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="17415" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>times are seconds using linux time command for bridges and cut verts</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Zandi</t>
+  </si>
+  <si>
+    <t>Times are seconds using linux time command for bridges and cut verts.  Times over 10 minutes or not finished are listed as N/A.</t>
   </si>
 </sst>
 </file>
@@ -191,10 +191,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,24 +536,32 @@
   <dimension ref="D1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -573,453 +581,453 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>32.576999999999998</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>6.9450000000000003</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1.3520000000000001</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.266</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>82</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>82.61</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.65400000000000003</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.503</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>75.819999999999993</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
         <v>50.317</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
         <v>151.26</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1">
         <v>64.150000000000006</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1.2310000000000001</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>17</v>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
         <v>9.3049999999999997</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1">
         <v>1.228</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1">
         <v>79.19</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
         <v>39.915999999999997</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
         <v>1.381</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="2">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.02</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
         <v>7.4550000000000001</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="2">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>8.6210000000000004</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>176.63</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0.253</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1">
         <v>1.62</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>17</v>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
